--- a/Analysis/ses_network/output data/Correlation matrices for top10 metiers.xlsx
+++ b/Analysis/ses_network/output data/Correlation matrices for top10 metiers.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="860" yWindow="960" windowWidth="24180" windowHeight="14280" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="860" yWindow="460" windowWidth="24180" windowHeight="14280" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="FCM matrix (trips)" sheetId="5" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="31">
   <si>
     <t>HKL_1</t>
   </si>
@@ -119,12 +119,18 @@
   <si>
     <t>shrimp sole correlation strongly negative for trips only. Targeting different patches?</t>
   </si>
+  <si>
+    <t>DTS</t>
+  </si>
+  <si>
+    <t>Albacore tuna</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -147,6 +153,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -165,15 +187,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -452,7 +481,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A2" sqref="A2:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2644,15 +2673,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:Y25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView tabSelected="1" topLeftCell="I3" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15:Y25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="15" max="15" width="15.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -2684,7 +2716,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2719,7 +2751,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2754,7 +2786,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2789,7 +2821,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2824,7 +2856,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2859,7 +2891,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2894,7 +2926,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2929,7 +2961,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2964,7 +2996,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2999,7 +3031,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -3034,7 +3066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>0</v>
       </c>
@@ -3065,8 +3097,38 @@
       <c r="K15" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="P15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="T15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="V15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="W15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y15" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -3090,8 +3152,26 @@
         <f>B23</f>
         <v>4.4216891955716299E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O16" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q16">
+        <v>-7.8486730660643697E-2</v>
+      </c>
+      <c r="T16">
+        <v>0.30221011244247797</v>
+      </c>
+      <c r="U16">
+        <v>-0.43137254901960798</v>
+      </c>
+      <c r="V16">
+        <v>-6.5404070750368096E-2</v>
+      </c>
+      <c r="W16">
+        <v>4.4216891955716299E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -3110,8 +3190,23 @@
         <f>B23</f>
         <v>4.4216891955716299E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O17" t="s">
+        <v>23</v>
+      </c>
+      <c r="P17">
+        <v>-7.8486730660643697E-2</v>
+      </c>
+      <c r="T17">
+        <v>-0.43137254901960798</v>
+      </c>
+      <c r="U17">
+        <v>-0.32653743315507999</v>
+      </c>
+      <c r="V17">
+        <v>4.4216891955716299E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -3119,8 +3214,14 @@
         <f>D19</f>
         <v>-4.1717336954844302E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O18" t="s">
+        <v>15</v>
+      </c>
+      <c r="S18">
+        <v>-4.1717336954844302E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -3131,8 +3232,17 @@
         <f>E20</f>
         <v>0.18923076923076901</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O19" t="s">
+        <v>21</v>
+      </c>
+      <c r="R19">
+        <v>-4.1717336954844302E-2</v>
+      </c>
+      <c r="T19">
+        <v>0.18923076923076901</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -3161,8 +3271,32 @@
         <f>F25</f>
         <v>0.23374387210509801</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O20" t="s">
+        <v>14</v>
+      </c>
+      <c r="P20">
+        <v>0.30221011244247797</v>
+      </c>
+      <c r="Q20">
+        <v>-0.43137254901960798</v>
+      </c>
+      <c r="S20">
+        <v>0.18923076923076901</v>
+      </c>
+      <c r="V20">
+        <v>0.14886065370582699</v>
+      </c>
+      <c r="W20">
+        <v>0.36709481168566099</v>
+      </c>
+      <c r="X20">
+        <v>0.22232216102191499</v>
+      </c>
+      <c r="Y20">
+        <v>0.23374387210509801</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -3176,8 +3310,20 @@
         <f>G22</f>
         <v>0.61538461538461497</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O21" t="s">
+        <v>22</v>
+      </c>
+      <c r="P21">
+        <v>-0.19794721407624599</v>
+      </c>
+      <c r="Q21">
+        <v>-0.32653743315507999</v>
+      </c>
+      <c r="V21">
+        <v>0.61538461538461497</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -3197,8 +3343,26 @@
         <f>H23</f>
         <v>0.16701796547783701</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O22" t="s">
+        <v>20</v>
+      </c>
+      <c r="P22">
+        <v>-6.5404070750368096E-2</v>
+      </c>
+      <c r="Q22">
+        <v>-0.1</v>
+      </c>
+      <c r="T22">
+        <v>0.14886065370582699</v>
+      </c>
+      <c r="U22">
+        <v>0.61538461538461497</v>
+      </c>
+      <c r="W22">
+        <v>0.16701796547783701</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -3219,8 +3383,26 @@
         <f>I25</f>
         <v>-0.237176890041326</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O23" t="s">
+        <v>30</v>
+      </c>
+      <c r="P23">
+        <v>4.4216891955716299E-2</v>
+      </c>
+      <c r="T23">
+        <v>0.36709481168566099</v>
+      </c>
+      <c r="V23">
+        <v>0.16701796547783701</v>
+      </c>
+      <c r="X23">
+        <v>-0.226315789473684</v>
+      </c>
+      <c r="Y23">
+        <v>-0.237176890041326</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -3234,8 +3416,20 @@
         <f>J25</f>
         <v>-2.8896466905187799E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O24" t="s">
+        <v>29</v>
+      </c>
+      <c r="T24">
+        <v>0.22232216102191499</v>
+      </c>
+      <c r="W24">
+        <v>-0.226315789473684</v>
+      </c>
+      <c r="Y24">
+        <v>-2.8896466905187799E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -3248,8 +3442,32 @@
       <c r="J25">
         <v>-2.8896466905187799E-2</v>
       </c>
+      <c r="O25" t="s">
+        <v>18</v>
+      </c>
+      <c r="T25">
+        <v>0.23374387210509801</v>
+      </c>
+      <c r="W25">
+        <v>-0.237176890041326</v>
+      </c>
+      <c r="X25">
+        <v>-2.8896466905187799E-2</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="P16:Y25">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
